--- a/능력치 관련 기획(알바, 교육).xlsx
+++ b/능력치 관련 기획(알바, 교육).xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQ1\Documents\GitHub\KaraMaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GitHub\KaraMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="능력치(Status)" sheetId="1" r:id="rId1"/>
+    <sheet name="아르바이트(Part Time)" sheetId="4" r:id="rId2"/>
+    <sheet name="교육(Education)" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
   <si>
     <t>능력치 종류/설명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -587,10 +587,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Art</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Elegance</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -611,10 +607,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Music</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Health</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -652,6 +644,10 @@
   </si>
   <si>
     <t>Religiosity</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -733,99 +729,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -851,27 +758,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -885,40 +777,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,6 +884,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1054,6 +936,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1230,17 +1129,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.4375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
@@ -1255,869 +1155,403 @@
     <col min="23" max="23" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="J1" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20"/>
-      <c r="S1" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="6">
         <v>1000</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="3">
-        <v>12</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>4</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="3">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="W3" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="3">
-        <v>12</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="S4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="T4" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="V4" s="3">
-        <v>2</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="J5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5" s="3">
-        <v>18</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="3">
-        <v>20</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="S5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="T5" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="V5" s="3">
-        <v>1</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="J6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="L6" s="3">
-        <v>12</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>2</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="S6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V6" s="3">
-        <v>2</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="J7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7" s="3">
-        <v>15</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="11"/>
-      <c r="S7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="T7" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="V7" s="3">
-        <v>1</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="3">
-        <v>13</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>5</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q8" s="11"/>
-      <c r="S8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="T8" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="J9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" s="3">
-        <v>13</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="11"/>
-      <c r="S9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="T9" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" s="3">
-        <v>12</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11"/>
-      <c r="S10" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="T10" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="V10" s="3">
-        <v>1</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
-      <c r="J11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="3">
-        <v>12</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>3</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="S11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="T11" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="V11" s="3">
-        <v>2</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="J12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" s="3">
-        <v>13</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="3">
-        <v>5</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="S12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="T12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
-      <c r="J13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" s="3">
-        <v>13</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>4</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="11"/>
-      <c r="S13" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="V13" s="12">
-        <v>2</v>
-      </c>
-      <c r="W13" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="J14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="3">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="11"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
-      <c r="J15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="3">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q15" s="11"/>
-    </row>
-    <row r="16" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="J16" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L16" s="12">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O16" s="12">
-        <v>3</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
+      <c r="C23" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="S1:W1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2127,12 +1561,453 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="6">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="6">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="6">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="6">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="6">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="6">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="6">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="6">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="6">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="6">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="6">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="6">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="6">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="6">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="6">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="6">
+        <v>20</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="B3:I16">
+    <sortCondition ref="D3"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2140,12 +2015,355 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="19.1875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A3" s="6">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="A3:F13">
+    <sortCondition ref="C3"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/능력치 관련 기획(알바, 교육).xlsx
+++ b/능력치 관련 기획(알바, 교육).xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GitHub\KaraMaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQ1\Documents\GitHub\KaraMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="능력치(Status)" sheetId="1" r:id="rId1"/>
     <sheet name="아르바이트(Part Time)" sheetId="4" r:id="rId2"/>
     <sheet name="교육(Education)" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="159">
   <si>
     <t>능력치 종류/설명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -467,187 +468,195 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Shrine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delivery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Housework</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parenting</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salon</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graveyard</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fence</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Etiquette</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Science</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theology</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Athletic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Literature</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speech</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 아르바이트와 교육을 할 때마다 상승</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleaning</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elegance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Courtesy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Causation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensibility</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strength</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intelligence</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charisma</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Power</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morality</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anti Spell</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Religiosity</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">확률 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Black Factory</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Shrine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delivery</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Housework</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parenting</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Salon</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hunter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Graveyard</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tutor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fence</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Etiquette</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dance</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Music</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Science</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Theology</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Athletic</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Literature</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speech</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 아르바이트와 교육을 할 때마다 상승</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어 이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stress</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cleaning</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cook</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Talk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elegance</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Courtesy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Causation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sensibility</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Health</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strength</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intelligence</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charisma</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack Power</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spell</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Morality</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anti Spell</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Religiosity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
+    <t>수치상승 평균/10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -758,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,10 +789,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,23 +896,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -936,23 +931,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1131,16 +1109,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.4375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
@@ -1155,28 +1133,28 @@
     <col min="23" max="23" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>21</v>
@@ -1187,7 +1165,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -1195,20 +1173,20 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="6">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1216,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1225,7 +1203,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1233,7 +1211,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1242,7 +1220,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1250,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1259,7 +1237,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1267,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1276,7 +1254,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1284,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1293,7 +1271,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1301,7 +1279,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1310,7 +1288,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1318,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1327,7 +1305,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1335,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1344,7 +1322,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1352,7 +1330,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1361,7 +1339,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1369,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1378,7 +1356,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1386,7 +1364,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1395,7 +1373,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1403,7 +1381,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1412,7 +1390,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -1420,7 +1398,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1429,7 +1407,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -1437,7 +1415,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1446,7 +1424,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -1454,7 +1432,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1463,7 +1441,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -1471,7 +1449,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1480,7 +1458,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -1488,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1497,7 +1475,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -1505,7 +1483,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1514,7 +1492,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -1522,7 +1500,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1531,7 +1509,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -1539,7 +1517,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1561,40 +1539,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>42</v>
@@ -1621,7 +1600,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1650,7 +1629,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1677,7 +1656,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1685,7 +1664,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="6">
         <v>12</v>
@@ -1704,7 +1683,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1712,7 +1691,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6">
         <v>12</v>
@@ -1731,7 +1710,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1739,7 +1718,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="6">
         <v>12</v>
@@ -1758,7 +1737,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1766,7 +1745,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="6">
         <v>13</v>
@@ -1785,7 +1764,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1793,7 +1772,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="6">
         <v>13</v>
@@ -1812,7 +1791,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1820,7 +1799,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="6">
         <v>13</v>
@@ -1839,7 +1818,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1847,7 +1826,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="6">
         <v>13</v>
@@ -1866,7 +1845,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1874,7 +1853,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="6">
         <v>13</v>
@@ -1893,7 +1872,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1901,7 +1880,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="6">
         <v>14</v>
@@ -1920,7 +1899,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1928,7 +1907,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="6">
         <v>15</v>
@@ -1947,7 +1926,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1955,7 +1934,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="6">
         <v>15</v>
@@ -1974,7 +1953,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1982,7 +1961,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="D16" s="6">
         <v>18</v>
@@ -2000,6 +1979,14 @@
         <v>62</v>
       </c>
       <c r="I16" s="6"/>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J19" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B3:I16">
@@ -2017,41 +2004,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="19.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>80</v>
@@ -2059,13 +2046,13 @@
       <c r="E2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -2073,7 +2060,7 @@
         <v>104</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>97</v>
@@ -2087,7 +2074,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2095,7 +2082,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>99</v>
@@ -2109,7 +2096,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -2117,7 +2104,7 @@
         <v>74</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>95</v>
@@ -2131,7 +2118,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -2139,7 +2126,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>102</v>
@@ -2153,7 +2140,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -2161,7 +2148,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>100</v>
@@ -2175,7 +2162,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -2183,7 +2170,7 @@
         <v>79</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>90</v>
@@ -2197,7 +2184,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -2205,7 +2192,7 @@
         <v>71</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>83</v>
@@ -2219,7 +2206,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -2227,7 +2214,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>105</v>
@@ -2241,7 +2228,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -2249,7 +2236,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>89</v>
@@ -2263,7 +2250,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -2271,7 +2258,7 @@
         <v>82</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>101</v>
@@ -2285,7 +2272,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -2293,7 +2280,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>91</v>
@@ -2307,7 +2294,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2317,7 +2304,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2327,7 +2314,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2337,7 +2324,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2347,7 +2334,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2367,4 +2354,17 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/능력치 관련 기획(알바, 교육).xlsx
+++ b/능력치 관련 기획(알바, 교육).xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQ1\Documents\GitHub\KaraMaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GitHub\KaraMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="능력치(Status)" sheetId="1" r:id="rId1"/>
     <sheet name="아르바이트(Part Time)" sheetId="4" r:id="rId2"/>
     <sheet name="교육(Education)" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
   <si>
     <t>능력치 종류/설명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -468,6 +467,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Black Factory</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Shrine</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -645,18 +648,6 @@
   </si>
   <si>
     <t>번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">확률 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black Factory</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수치상승 평균/10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -767,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,13 +780,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -896,6 +884,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -931,6 +936,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1109,16 +1131,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.4375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
@@ -1133,28 +1155,28 @@
     <col min="23" max="23" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A2" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>21</v>
@@ -1165,7 +1187,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -1173,20 +1195,20 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D3" s="6">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1194,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1203,7 +1225,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1211,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1220,7 +1242,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1228,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1237,7 +1259,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1245,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1254,7 +1276,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1262,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1271,7 +1293,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1279,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1288,7 +1310,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1296,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1305,7 +1327,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1313,7 +1335,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1322,7 +1344,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1330,7 +1352,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1339,7 +1361,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1347,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1356,7 +1378,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1364,7 +1386,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1373,7 +1395,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1381,7 +1403,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1390,7 +1412,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -1398,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1407,7 +1429,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -1415,7 +1437,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1424,7 +1446,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -1432,7 +1454,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1441,7 +1463,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -1449,7 +1471,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1458,7 +1480,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -1466,7 +1488,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1475,7 +1497,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -1483,7 +1505,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1492,7 +1514,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -1500,7 +1522,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1509,7 +1531,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -1517,7 +1539,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1539,41 +1561,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>42</v>
@@ -1600,7 +1621,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1629,7 +1650,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1656,7 +1677,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1664,7 +1685,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D5" s="6">
         <v>12</v>
@@ -1683,7 +1704,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1691,7 +1712,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" s="6">
         <v>12</v>
@@ -1710,7 +1731,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1718,7 +1739,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6">
         <v>12</v>
@@ -1737,7 +1758,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1745,7 +1766,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" s="6">
         <v>13</v>
@@ -1764,7 +1785,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1772,7 +1793,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D9" s="6">
         <v>13</v>
@@ -1791,7 +1812,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1799,7 +1820,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" s="6">
         <v>13</v>
@@ -1818,7 +1839,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1826,7 +1847,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D11" s="6">
         <v>13</v>
@@ -1845,7 +1866,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1853,7 +1874,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D12" s="6">
         <v>13</v>
@@ -1872,7 +1893,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1880,7 +1901,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D13" s="6">
         <v>14</v>
@@ -1899,7 +1920,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1907,7 +1928,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D14" s="6">
         <v>15</v>
@@ -1926,7 +1947,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1934,7 +1955,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" s="6">
         <v>15</v>
@@ -1953,7 +1974,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1961,7 +1982,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="D16" s="6">
         <v>18</v>
@@ -1979,14 +2000,6 @@
         <v>62</v>
       </c>
       <c r="I16" s="6"/>
-    </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J19" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>158</v>
-      </c>
     </row>
   </sheetData>
   <sortState ref="B3:I16">
@@ -2004,41 +2017,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A2" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>80</v>
@@ -2046,13 +2059,13 @@
       <c r="E2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -2060,7 +2073,7 @@
         <v>104</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>97</v>
@@ -2074,7 +2087,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2082,7 +2095,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>99</v>
@@ -2096,7 +2109,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -2104,7 +2117,7 @@
         <v>74</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>95</v>
@@ -2118,7 +2131,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -2126,7 +2139,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>102</v>
@@ -2140,7 +2153,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -2148,7 +2161,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>100</v>
@@ -2162,7 +2175,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -2170,7 +2183,7 @@
         <v>79</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>90</v>
@@ -2184,7 +2197,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -2192,7 +2205,7 @@
         <v>71</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>83</v>
@@ -2206,7 +2219,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -2214,7 +2227,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>105</v>
@@ -2228,7 +2241,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -2236,7 +2249,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>89</v>
@@ -2250,7 +2263,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -2258,7 +2271,7 @@
         <v>82</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>101</v>
@@ -2272,7 +2285,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -2280,7 +2293,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>91</v>
@@ -2294,7 +2307,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2304,7 +2317,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2314,7 +2327,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2324,7 +2337,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2334,7 +2347,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2354,17 +2367,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/능력치 관련 기획(알바, 교육).xlsx
+++ b/능력치 관련 기획(알바, 교육).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="능력치(Status)" sheetId="1" r:id="rId1"/>
@@ -767,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,6 +796,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,16 +1137,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1541,7 +1544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -1560,16 +1563,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2004,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2020,13 +2023,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -2054,7 +2057,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>104</v>
@@ -2076,7 +2079,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>78</v>
@@ -2097,8 +2100,8 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>2</v>
+      <c r="A5" s="8">
+        <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>74</v>
@@ -2119,8 +2122,8 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>3</v>
+      <c r="A6" s="8">
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>73</v>
@@ -2141,8 +2144,8 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>4</v>
+      <c r="A7" s="8">
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>72</v>
@@ -2163,8 +2166,8 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>5</v>
+      <c r="A8" s="8">
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>79</v>
@@ -2185,8 +2188,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>6</v>
+      <c r="A9" s="8">
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>71</v>
@@ -2207,8 +2210,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>7</v>
+      <c r="A10" s="8">
+        <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>75</v>
@@ -2229,8 +2232,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>8</v>
+      <c r="A11" s="8">
+        <v>22</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>76</v>
@@ -2251,8 +2254,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>9</v>
+      <c r="A12" s="8">
+        <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>82</v>
@@ -2273,8 +2276,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>10</v>
+      <c r="A13" s="8">
+        <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>77</v>
@@ -2353,6 +2356,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/능력치 관련 기획(알바, 교육).xlsx
+++ b/능력치 관련 기획(알바, 교육).xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="능력치(Status)" sheetId="1" r:id="rId1"/>
     <sheet name="아르바이트(Part Time)" sheetId="4" r:id="rId2"/>
     <sheet name="교육(Education)" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="휴식(Rest)" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="165">
   <si>
     <t>능력치 종류/설명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -657,6 +657,30 @@
   </si>
   <si>
     <t>수치상승 평균/10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴식</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유 행동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>바캉스</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rest</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vacation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트레스 감소</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -767,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,6 +820,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1137,16 +1164,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1563,16 +1590,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2007,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2023,13 +2050,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -2362,13 +2389,158 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>25</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>26</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/능력치 관련 기획(알바, 교육).xlsx
+++ b/능력치 관련 기획(알바, 교육).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="능력치(Status)" sheetId="1" r:id="rId1"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>체력/근력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>종류</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -200,70 +196,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>신앙심/항마력/도덕심</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>신앙심/체력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>매력/예술/체력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도덕심</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력/근력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>청소/요리/화술</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>청소/요리/성품/체력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>성품/감수성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>감수성/예술/화술</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>업보/전투력/체력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>성품/도덕심</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>항마력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>감수성/근력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지능/화술</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>감수성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>10/12/14/16/18</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -356,10 +292,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>마력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>성공확률</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -380,18 +312,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>지능</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지능/기품/예절</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지능/신앙심/항마력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>40/60/80/90</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -404,38 +324,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>체력/매력/예술</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>50/70/90/110</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>예술/감수성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>40/50/60/80</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>체력/근력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>근력/전투력/카리스마</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지능/화술/카리스마</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>예절/기품</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>40/70/130/190</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -444,10 +340,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>예술/가창력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>40/70/130/170</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -681,6 +573,148 @@
   </si>
   <si>
     <t>스트레스 감소</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력(11) + 4
+근력(12) + 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도덕심(18) + 4
+항마력(19) + 4
+신앙심(20) + 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력(11) + 4
+신앙심(20) + 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>감수성(8) + 4
+성품(9) + 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소(1) + 4
+요리(2) + 4
+성품(9) + 4
+체력(11) + 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력(11) + 4
+근력(12) + 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>화술(3) + 4
+예술(4) + 4
+감수성(8) + 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>인과(7) + 4
+체력(11) + 4
+전투력(16) + 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소(1) + 4
+요리(2) + 4
+화술(3) + 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>항마력(19) + 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>화술(3) + 4
+지능(13) + 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>예술(4) + 4
+체력(11) + 4
+매력(15) + 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>감수성(8) - 4
+근력(12) - 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>감수성(8) - 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도덕심(18) - 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>성품(9) - 4
+도덕심(18) - 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>예술(4) + 3
+감수성(8) + 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력(11) + 3
+근력(12) + 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>예술(4) + 3
+체력(11) + 3
+매력(15) + 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기품(5) + 3
+예의범절(6) + 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>근력(12) + 3
+카리스마(14) + 3
+전투력(16) + 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기품(5) + 3
+예의범절(6) + 3
+지능(13) + 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력(17) + 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>예술(4) + 3
+음악(10) + 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능(13) + 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>화술(3) + 3
+지능(13) + 3
+카리스마(14) + 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능(13) + 3
+항마력(19) + 3
+신앙심(20) + 3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -791,7 +825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,9 +850,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,6 +858,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1139,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1178,13 +1215,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>21</v>
@@ -1203,13 +1240,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D3" s="6">
         <v>999</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1224,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1241,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1258,7 +1295,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1275,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1292,7 +1329,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1309,7 +1346,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1326,7 +1363,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1343,7 +1380,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1360,7 +1397,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1377,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1394,7 +1431,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1411,7 +1448,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1428,7 +1465,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1445,7 +1482,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1462,7 +1499,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1479,7 +1516,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1496,7 +1533,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1513,7 +1550,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1530,7 +1567,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1544,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1572,16 +1609,20 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.75" bestFit="1" customWidth="1"/>
@@ -1591,7 +1632,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1603,13 +1644,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>39</v>
@@ -1627,10 +1668,10 @@
         <v>40</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1638,13 +1679,13 @@
         <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D3" s="6">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>41</v>
+      <c r="E3" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -1653,13 +1694,13 @@
         <v>4</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1667,13 +1708,13 @@
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D4" s="6">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>44</v>
+      <c r="E4" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -1682,11 +1723,11 @@
         <v>2</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1694,13 +1735,13 @@
         <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D5" s="6">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>46</v>
+      <c r="E5" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -1709,11 +1750,11 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1721,13 +1762,13 @@
         <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D6" s="6">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>52</v>
+      <c r="E6" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -1736,11 +1777,11 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1748,13 +1789,13 @@
         <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D7" s="6">
         <v>12</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>51</v>
+      <c r="E7" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -1767,7 +1808,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1775,26 +1816,26 @@
         <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6">
         <v>13</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>49</v>
+      <c r="E8" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8" s="6">
         <v>5</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1802,13 +1843,13 @@
         <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D9" s="6">
         <v>13</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>53</v>
+      <c r="E9" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -1817,11 +1858,11 @@
         <v>4</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1829,26 +1870,26 @@
         <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D10" s="6">
         <v>13</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>55</v>
+      <c r="E10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="G10" s="6">
         <v>3</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1856,13 +1897,13 @@
         <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D11" s="6">
         <v>13</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>49</v>
+      <c r="E11" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -1871,11 +1912,11 @@
         <v>5</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1883,13 +1924,13 @@
         <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D12" s="6">
         <v>13</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>50</v>
+      <c r="E12" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -1898,11 +1939,11 @@
         <v>3</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1910,26 +1951,26 @@
         <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D13" s="6">
         <v>14</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>57</v>
+        <v>147</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="G13" s="6">
         <v>4</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1937,26 +1978,26 @@
         <v>35</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D14" s="6">
         <v>15</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>58</v>
+      <c r="E14" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="G14" s="6">
         <v>3</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1964,22 +2005,22 @@
         <v>26</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D15" s="6">
         <v>15</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>47</v>
+      <c r="E15" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="G15" s="6">
         <v>5</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -1991,7 +2032,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D16" s="6">
         <v>18</v>
@@ -2000,22 +2041,22 @@
         <v>0</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G16" s="6">
         <v>20</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="19" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J19" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>158</v>
+      <c r="J19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2027,6 +2068,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2034,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2051,7 +2093,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -2061,265 +2103,265 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>122</v>
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="B3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>98</v>
+      <c r="F3" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="B4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="10">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>98</v>
+      <c r="F4" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+    <row r="5" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="B5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="10">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>96</v>
+      <c r="F5" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="B6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>94</v>
+      <c r="F6" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+    <row r="7" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="B7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="10">
         <v>2</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>103</v>
+      <c r="F7" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+    <row r="8" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>19</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="B8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>88</v>
+      <c r="F8" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="10">
         <v>20</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="B9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>93</v>
+      <c r="F9" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>21</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="B10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>106</v>
+      <c r="F10" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="10">
         <v>22</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="B11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="10">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>87</v>
+      <c r="F11" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+    <row r="12" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>23</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="B12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="10">
         <v>2</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>103</v>
+      <c r="F12" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+    <row r="13" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="B13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="10">
         <v>1</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>92</v>
+      <c r="F13" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -2391,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2408,7 +2450,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -2416,124 +2458,124 @@
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>107</v>
+      <c r="A2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>25</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>162</v>
+      <c r="B3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>26</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>163</v>
+      <c r="B4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/능력치 관련 기획(알바, 교육).xlsx
+++ b/능력치 관련 기획(알바, 교육).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="166">
   <si>
     <t>능력치 종류/설명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -715,6 +715,10 @@
     <t>지능(13) + 3
 항마력(19) + 3
 신앙심(20) + 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kjhslfdk</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -860,10 +864,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1201,16 +1205,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1631,16 +1635,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1684,7 +1688,7 @@
       <c r="D3" s="6">
         <v>12</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>138</v>
       </c>
       <c r="F3" s="6">
@@ -1713,7 +1717,7 @@
       <c r="D4" s="6">
         <v>12</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F4" s="6">
@@ -1740,7 +1744,7 @@
       <c r="D5" s="6">
         <v>12</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F5" s="6">
@@ -1767,7 +1771,7 @@
       <c r="D6" s="6">
         <v>12</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>141</v>
       </c>
       <c r="F6" s="6">
@@ -1794,7 +1798,7 @@
       <c r="D7" s="6">
         <v>12</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F7" s="6">
@@ -1821,7 +1825,7 @@
       <c r="D8" s="6">
         <v>13</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1848,7 +1852,7 @@
       <c r="D9" s="6">
         <v>13</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>144</v>
       </c>
       <c r="F9" s="6">
@@ -1875,10 +1879,10 @@
       <c r="D10" s="6">
         <v>13</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>153</v>
       </c>
       <c r="G10" s="6">
@@ -1902,7 +1906,7 @@
       <c r="D11" s="6">
         <v>13</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F11" s="6">
@@ -1929,7 +1933,7 @@
       <c r="D12" s="6">
         <v>13</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>146</v>
       </c>
       <c r="F12" s="6">
@@ -1959,7 +1963,7 @@
       <c r="E13" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>150</v>
       </c>
       <c r="G13" s="6">
@@ -1983,7 +1987,7 @@
       <c r="D14" s="6">
         <v>15</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -2010,7 +2014,7 @@
       <c r="D15" s="6">
         <v>15</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -2077,7 +2081,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2092,13 +2096,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -2134,7 +2138,7 @@
       <c r="C3" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E3" s="10">
@@ -2143,7 +2147,9 @@
       <c r="F3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -2156,7 +2162,7 @@
       <c r="C4" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E4" s="10">
@@ -2178,7 +2184,7 @@
       <c r="C5" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>156</v>
       </c>
       <c r="E5" s="10">
@@ -2200,7 +2206,7 @@
       <c r="C6" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>157</v>
       </c>
       <c r="E6" s="10">
@@ -2222,7 +2228,7 @@
       <c r="C7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>158</v>
       </c>
       <c r="E7" s="10">
@@ -2244,7 +2250,7 @@
       <c r="C8" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>159</v>
       </c>
       <c r="E8" s="10">
@@ -2288,7 +2294,7 @@
       <c r="C10" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>161</v>
       </c>
       <c r="E10" s="10">
@@ -2332,7 +2338,7 @@
       <c r="C12" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>163</v>
       </c>
       <c r="E12" s="10">
@@ -2354,7 +2360,7 @@
       <c r="C13" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>164</v>
       </c>
       <c r="E13" s="10">
@@ -2449,13 +2455,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">

--- a/능력치 관련 기획(알바, 교육).xlsx
+++ b/능력치 관련 기획(알바, 교육).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="165">
   <si>
     <t>능력치 종류/설명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -715,10 +715,6 @@
     <t>지능(13) + 3
 항마력(19) + 3
 신앙심(20) + 3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>kjhslfdk</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2147,9 +2143,7 @@
       <c r="F3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>165</v>
-      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
